--- a/ig/ch-elm/CodeSystem-ch-elm-foph-business-rules.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-foph-business-rules.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-16T14:46:54+01:00</t>
+    <t>2024-01-31T12:59:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/CodeSystem-ch-elm-foph-business-rules.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-foph-business-rules.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T12:59:55+01:00</t>
+    <t>2024-02-27T13:26:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/CodeSystem-ch-elm-foph-business-rules.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-foph-business-rules.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>CH ELM Foph Business Rules</t>
+    <t>CH ELM FOPH Business Rules</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-27T13:26:20+01:00</t>
+    <t>2024-03-28T10:46:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -150,6 +150,15 @@
     <t>A purely informational message.</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>FOPH-000</t>
+  </si>
+  <si>
+    <t>Generic Information</t>
+  </si>
+  <si>
     <t>warning</t>
   </si>
   <si>
@@ -159,10 +168,31 @@
     <t>If the rule is violated, the resource is conformant, but it is not necessarily following best practice.</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>FOPH-003</t>
+    <t>FOPH-005</t>
+  </si>
+  <si>
+    <t>The required anonymization for the reported organism was violated. The following field(s) are affected: %fields%</t>
+  </si>
+  <si>
+    <t>FOPH-011</t>
+  </si>
+  <si>
+    <t>The material is already specified by the leading code. The additional material specified in specimen.type will be ignored.</t>
+  </si>
+  <si>
+    <t>FOPH-010</t>
+  </si>
+  <si>
+    <t>Attention, the code %code% (%codeSystem%) expires on %validTo%. Please adjust your systems by this date.</t>
+  </si>
+  <si>
+    <t>FOPH-001</t>
+  </si>
+  <si>
+    <t>Generic Warning</t>
+  </si>
+  <si>
+    <t>FOPH-006</t>
   </si>
   <si>
     <t>The following elements for the patient's address are expected: %missingElements%.</t>
@@ -177,16 +207,46 @@
     <t>If the rule is violated, the resource is not conformant.</t>
   </si>
   <si>
-    <t>FOPH-001</t>
-  </si>
-  <si>
-    <t>The provided laboratory identification %identifier% is either unknown or corresponds to a laboratory for which your account does not have reporting permissions. Please verify your laboratory identification. If it's correct, complete the necessary onboarding process before submitting data on behalf of this lab.</t>
+    <t>FOPH-009</t>
+  </si>
+  <si>
+    <t>The transmitted code %code% (%codeSystem%) is outside the defined validity period %validFrom% - %validTo%.</t>
   </si>
   <si>
     <t>FOPH-002</t>
   </si>
   <si>
-    <t>The required anonymization for the reported organism was violated.</t>
+    <t>Generic Error</t>
+  </si>
+  <si>
+    <t>FOPH-007</t>
+  </si>
+  <si>
+    <t>The specified material is not supported by the provided leading code.</t>
+  </si>
+  <si>
+    <t>FOPH-012</t>
+  </si>
+  <si>
+    <t>The transmitted leading code %code% (%codeSystem%) could not be found in the current value set.</t>
+  </si>
+  <si>
+    <t>FOPH-008</t>
+  </si>
+  <si>
+    <t>The specified organism is not supported by the provided leading code.</t>
+  </si>
+  <si>
+    <t>FOPH-004</t>
+  </si>
+  <si>
+    <t>The provided laboratory identification "%identifier%" is either unknown or corresponds to a laboratory for which your account does not have reporting permissions. Please verify your laboratory identification. If it's correct, complete the necessary onboarding process before submitting data on behalf of this lab.</t>
+  </si>
+  <si>
+    <t>FOPH-013</t>
+  </si>
+  <si>
+    <t>The transmitted code %code% (%codeSystem%) is outside the defined validity period.</t>
   </si>
 </sst>
 </file>
@@ -501,7 +561,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -537,33 +597,33 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="D3" t="s" s="2">
         <v>47</v>
       </c>
+      <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="C4" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="D4" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>51</v>
@@ -571,33 +631,153 @@
       <c r="C5" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="D5" t="s" s="2">
-        <v>53</v>
-      </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s" s="2">
         <v>54</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>55</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="C8" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D17" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ig/ch-elm/CodeSystem-ch-elm-foph-business-rules.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-foph-business-rules.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T10:46:20+01:00</t>
+    <t>2024-05-17T13:32:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Federal Office of Public Health FOPH (https://www.bag.admin.ch/bag/en/home/das-bag/kontakt-standort.html)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/ig/ch-elm/CodeSystem-ch-elm-foph-business-rules.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-foph-business-rules.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T13:32:20+00:00</t>
+    <t>2024-06-17T08:59:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/CodeSystem-ch-elm-foph-business-rules.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-foph-business-rules.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="84">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.1</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T08:59:23+00:00</t>
+    <t>2024-08-20T16:32:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -168,6 +168,12 @@
     <t>If the rule is violated, the resource is conformant, but it is not necessarily following best practice.</t>
   </si>
   <si>
+    <t>FOPH-014</t>
+  </si>
+  <si>
+    <t>The patient address state element should contain a two letter canton code.</t>
+  </si>
+  <si>
     <t>FOPH-005</t>
   </si>
   <si>
@@ -186,6 +192,12 @@
     <t>Attention, the code %code% (%codeSystem%) expires on %validTo%. Please adjust your systems by this date.</t>
   </si>
   <si>
+    <t>FOPH-015</t>
+  </si>
+  <si>
+    <t>For VCT patients, the identifier (OASI/AHV/ID-N) must not be reported.</t>
+  </si>
+  <si>
     <t>FOPH-001</t>
   </si>
   <si>
@@ -211,6 +223,12 @@
   </si>
   <si>
     <t>The transmitted code %code% (%codeSystem%) is outside the defined validity period %validFrom% - %validTo%.</t>
+  </si>
+  <si>
+    <t>FOPH-016</t>
+  </si>
+  <si>
+    <t>The country code specified under patient address could not resolved. An ISO 3166 2 or 3 letter code is expected.</t>
   </si>
   <si>
     <t>FOPH-002</t>
@@ -561,7 +579,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -683,7 +701,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>61</v>
@@ -691,33 +709,33 @@
       <c r="C10" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="D10" t="s" s="2">
-        <v>63</v>
-      </c>
+      <c r="D10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
         <v>45</v>
       </c>
       <c r="B11" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s" s="2">
         <v>64</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>65</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="C12" t="s" s="2">
         <v>66</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="D12" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="D12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
@@ -778,6 +796,42 @@
         <v>77</v>
       </c>
       <c r="D17" s="2"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="D20" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ig/ch-elm/CodeSystem-ch-elm-foph-business-rules.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-foph-business-rules.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T16:32:03+00:00</t>
+    <t>2024-09-24T11:18:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/CodeSystem-ch-elm-foph-business-rules.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-foph-business-rules.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.0</t>
+    <t>1.6.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T11:18:39+00:00</t>
+    <t>2024-10-31T11:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/CodeSystem-ch-elm-foph-business-rules.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-foph-business-rules.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.6.0</t>
+    <t>1.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T11:15:20+00:00</t>
+    <t>2024-11-28T14:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/CodeSystem-ch-elm-foph-business-rules.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-foph-business-rules.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.7.0</t>
+    <t>1.8.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T14:18:34+00:00</t>
+    <t>2025-02-04T09:19:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/CodeSystem-ch-elm-foph-business-rules.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-foph-business-rules.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="90">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.0</t>
+    <t>1.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T09:19:33+00:00</t>
+    <t>2025-03-18T17:14:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -174,6 +174,12 @@
     <t>The patient address state element should contain a two letter canton code.</t>
   </si>
   <si>
+    <t>FOPH-017</t>
+  </si>
+  <si>
+    <t>The combination of postal code &amp; city in the patient address element could not be found in the FOPH location database.</t>
+  </si>
+  <si>
     <t>FOPH-005</t>
   </si>
   <si>
@@ -190,6 +196,18 @@
   </si>
   <si>
     <t>Attention, the code %code% (%codeSystem%) expires on %validTo%. Please adjust your systems by this date.</t>
+  </si>
+  <si>
+    <t>FOPH-019</t>
+  </si>
+  <si>
+    <t>The combination of postal code &amp; city in the practitioner orderer address element could not be found in the FOPH location database.</t>
+  </si>
+  <si>
+    <t>FOPH-018</t>
+  </si>
+  <si>
+    <t>The combination of postal code &amp; city in the organization orderer address element could not be found in the FOPH location database.</t>
   </si>
   <si>
     <t>FOPH-015</t>
@@ -579,7 +597,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -725,7 +743,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>65</v>
@@ -733,19 +751,17 @@
       <c r="C12" t="s" s="2">
         <v>66</v>
       </c>
-      <c r="D12" t="s" s="2">
-        <v>67</v>
-      </c>
+      <c r="D12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
         <v>45</v>
       </c>
       <c r="B13" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s" s="2">
         <v>68</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>69</v>
       </c>
       <c r="D13" s="2"/>
     </row>
@@ -754,24 +770,26 @@
         <v>45</v>
       </c>
       <c r="B14" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s" s="2">
         <v>70</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>71</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="C15" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="C15" t="s" s="2">
+      <c r="D15" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="D15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
@@ -832,6 +850,42 @@
         <v>83</v>
       </c>
       <c r="D20" s="2"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="D23" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ig/ch-elm/CodeSystem-ch-elm-foph-business-rules.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-foph-business-rules.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.0</t>
+    <t>1.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-18T17:14:46+00:00</t>
+    <t>2025-03-26T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/CodeSystem-ch-elm-foph-business-rules.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-foph-business-rules.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.1</t>
+    <t>1.10.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T08:01:17+00:00</t>
+    <t>2025-06-23T21:17:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/CodeSystem-ch-elm-foph-business-rules.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-foph-business-rules.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.10.0</t>
+    <t>1.11.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T21:17:45+00:00</t>
+    <t>2025-08-13T07:34:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/CodeSystem-ch-elm-foph-business-rules.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-foph-business-rules.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="88">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.11.0</t>
+    <t>1.12.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T07:34:00+00:00</t>
+    <t>2025-10-21T11:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -208,12 +208,6 @@
   </si>
   <si>
     <t>The combination of postal code &amp; city in the organization orderer address element could not be found in the FOPH location database.</t>
-  </si>
-  <si>
-    <t>FOPH-015</t>
-  </si>
-  <si>
-    <t>For VCT patients, the identifier (OASI/AHV/ID-N) must not be reported.</t>
   </si>
   <si>
     <t>FOPH-001</t>
@@ -597,7 +591,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -767,7 +761,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>69</v>
@@ -775,21 +769,21 @@
       <c r="C14" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>71</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D15" t="s" s="2">
         <v>73</v>
       </c>
+      <c r="D15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
@@ -874,18 +868,6 @@
         <v>87</v>
       </c>
       <c r="D22" s="2"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="D23" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ig/ch-elm/CodeSystem-ch-elm-foph-business-rules.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-foph-business-rules.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="90">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.12.0</t>
+    <t>1.13.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T11:52:21+00:00</t>
+    <t>2025-11-25T09:58:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -184,6 +184,12 @@
   </si>
   <si>
     <t>The required anonymization for the reported organism was violated. The following field(s) are affected: %fields%</t>
+  </si>
+  <si>
+    <t>FOPH-022</t>
+  </si>
+  <si>
+    <t>Received multiple service requests without a basedOn attribute. Only the data contained in the service request referenced by the basedOn attribute in the DiagnosticReport are imported. If you want to specify an original orderer use the basedOn attribute on the primary service request to reference the secondary service request.</t>
   </si>
   <si>
     <t>FOPH-011</t>
@@ -591,7 +597,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -761,7 +767,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>69</v>
@@ -769,21 +775,21 @@
       <c r="C14" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="D14" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="D14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="C15" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="C15" t="s" s="2">
+      <c r="D15" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="D15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
@@ -868,6 +874,18 @@
         <v>87</v>
       </c>
       <c r="D22" s="2"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="D23" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ig/ch-elm/CodeSystem-ch-elm-foph-business-rules.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-foph-business-rules.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="94">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.13.0</t>
+    <t>1.13.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T09:58:53+00:00</t>
+    <t>2026-01-21T11:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -186,6 +186,12 @@
     <t>The required anonymization for the reported organism was violated. The following field(s) are affected: %fields%</t>
   </si>
   <si>
+    <t>FOPH-020</t>
+  </si>
+  <si>
+    <t>The effectiveDateTime-element indicates that the test was executed more than %testExecutionDateRejectionThresholdInDays% days ago. Assuming that this test has already been reported, the document is considered a duplicate. Duplicates are accepted on ABN/Test but not on the productive environment.</t>
+  </si>
+  <si>
     <t>FOPH-022</t>
   </si>
   <si>
@@ -214,6 +220,12 @@
   </si>
   <si>
     <t>The combination of postal code &amp; city in the organization orderer address element could not be found in the FOPH location database.</t>
+  </si>
+  <si>
+    <t>FOPH-021</t>
+  </si>
+  <si>
+    <t>Identical laboratory-test data are already stored in the FOPH database. The document is therefore considered a duplicate. Duplicates are accepted on ABN/Test but not on the productive environment.</t>
   </si>
   <si>
     <t>FOPH-001</t>
@@ -597,7 +609,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -779,7 +791,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>71</v>
@@ -787,33 +799,33 @@
       <c r="C15" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="D15" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="D15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
         <v>45</v>
       </c>
       <c r="B16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="C16" t="s" s="2">
         <v>74</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="C17" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="C17" t="s" s="2">
+      <c r="D17" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="D17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
@@ -886,6 +898,30 @@
         <v>89</v>
       </c>
       <c r="D23" s="2"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="D25" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
